--- a/EnsembleAAPL_data_with_prediction.xlsx
+++ b/EnsembleAAPL_data_with_prediction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t>begins_at</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,25 +547,25 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1">
-        <v>1251</v>
+        <v>1216</v>
       </c>
       <c r="B2" s="2">
-        <v>45559</v>
+        <v>45509</v>
       </c>
       <c r="C2">
-        <v>228.645</v>
+        <v>199.09</v>
       </c>
       <c r="D2">
-        <v>227.37</v>
+        <v>209.27</v>
       </c>
       <c r="E2">
-        <v>229.35</v>
+        <v>213.5</v>
       </c>
       <c r="F2">
-        <v>225.73</v>
+        <v>196</v>
       </c>
       <c r="G2">
-        <v>43556068</v>
+        <v>119548589</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -577,75 +577,75 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>223.6895</v>
+        <v>223.79693</v>
       </c>
       <c r="L2">
-        <v>223.6179383062954</v>
+        <v>219.6492073838104</v>
       </c>
       <c r="M2">
-        <v>61.26468555632344</v>
+        <v>18.13419805437763</v>
       </c>
       <c r="N2">
-        <v>224.216417646283</v>
+        <v>219.1127726377928</v>
       </c>
       <c r="O2">
-        <v>223.2428389024571</v>
+        <v>218.8368595775891</v>
       </c>
       <c r="P2">
-        <v>0.9735787438259251</v>
+        <v>0.2759130602037487</v>
       </c>
       <c r="Q2">
-        <v>0.438976815398797</v>
+        <v>2.413415440095583</v>
       </c>
       <c r="R2">
-        <v>223.6895</v>
+        <v>223.79693</v>
       </c>
       <c r="S2">
-        <v>231.8224103355644</v>
+        <v>237.1435317710173</v>
       </c>
       <c r="T2">
-        <v>215.5565896644356</v>
+        <v>210.4503282289828</v>
       </c>
       <c r="U2">
-        <v>70.16171100678146</v>
+        <v>37.42255336309467</v>
       </c>
       <c r="V2">
-        <v>43556068</v>
+        <v>119548589</v>
       </c>
       <c r="W2">
-        <v>4.945000000000003</v>
+        <v>7.028571428571425</v>
       </c>
       <c r="X2">
-        <v>763468857</v>
+        <v>749486548</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1">
-        <v>1252</v>
+        <v>1217</v>
       </c>
       <c r="B3" s="2">
-        <v>45560</v>
+        <v>45510</v>
       </c>
       <c r="C3">
-        <v>224.93</v>
+        <v>205.3</v>
       </c>
       <c r="D3">
-        <v>226.37</v>
+        <v>207.23</v>
       </c>
       <c r="E3">
-        <v>227.29</v>
+        <v>209.99</v>
       </c>
       <c r="F3">
-        <v>224.02</v>
+        <v>201.07</v>
       </c>
       <c r="G3">
-        <v>42308715</v>
+        <v>69660488</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -657,78 +657,78 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>223.6065</v>
+        <v>222.7245</v>
       </c>
       <c r="L3">
-        <v>223.8800394199816</v>
+        <v>218.4664257282094</v>
       </c>
       <c r="M3">
-        <v>57.02217529039072</v>
+        <v>20.08842221608177</v>
       </c>
       <c r="N3">
-        <v>224.5477380083934</v>
+        <v>217.2846537704401</v>
       </c>
       <c r="O3">
-        <v>223.4744804652381</v>
+        <v>217.9770922014714</v>
       </c>
       <c r="P3">
-        <v>1.073257543155279</v>
+        <v>-0.6924384310312917</v>
       </c>
       <c r="Q3">
-        <v>0.5658329609500934</v>
+        <v>1.792244665870208</v>
       </c>
       <c r="R3">
-        <v>223.6065</v>
+        <v>222.7245</v>
       </c>
       <c r="S3">
-        <v>231.5853200552274</v>
+        <v>237.7595908491475</v>
       </c>
       <c r="T3">
-        <v>215.6276799447727</v>
+        <v>207.6894091508524</v>
       </c>
       <c r="U3">
-        <v>64.94522691705794</v>
+        <v>32.60743321718928</v>
       </c>
       <c r="V3">
-        <v>42308715</v>
+        <v>69660488</v>
       </c>
       <c r="W3">
-        <v>4.853571428571432</v>
+        <v>7.081428571428568</v>
       </c>
       <c r="X3">
-        <v>721160142</v>
+        <v>679826060</v>
       </c>
       <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.004398117605664775</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1">
-        <v>1253</v>
+        <v>1218</v>
       </c>
       <c r="B4" s="2">
-        <v>45561</v>
+        <v>45511</v>
       </c>
       <c r="C4">
-        <v>227.3</v>
+        <v>206.9</v>
       </c>
       <c r="D4">
-        <v>227.52</v>
+        <v>209.82</v>
       </c>
       <c r="E4">
-        <v>228.5</v>
+        <v>213.64</v>
       </c>
       <c r="F4">
-        <v>225.41</v>
+        <v>206.39</v>
       </c>
       <c r="G4">
-        <v>36636707</v>
+        <v>63516417</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -740,78 +740,78 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>223.658</v>
+        <v>221.5665</v>
       </c>
       <c r="L4">
-        <v>224.2267023323643</v>
+        <v>217.6429566112371</v>
       </c>
       <c r="M4">
-        <v>61.96428571428574</v>
+        <v>28.93192488262908</v>
       </c>
       <c r="N4">
-        <v>225.0050090840251</v>
+        <v>216.1362454980647</v>
       </c>
       <c r="O4">
-        <v>223.7741485789242</v>
+        <v>217.3728631495106</v>
       </c>
       <c r="P4">
-        <v>1.230860505100992</v>
+        <v>-1.236617651445869</v>
       </c>
       <c r="Q4">
-        <v>0.6988384697802731</v>
+        <v>1.186472202406993</v>
       </c>
       <c r="R4">
-        <v>223.658</v>
+        <v>221.5665</v>
       </c>
       <c r="S4">
-        <v>231.7279614555926</v>
+        <v>236.8414389179592</v>
       </c>
       <c r="T4">
-        <v>215.5880385444073</v>
+        <v>206.2915610820409</v>
       </c>
       <c r="U4">
-        <v>70.94418362024003</v>
+        <v>43.48646947765889</v>
       </c>
       <c r="V4">
-        <v>36636707</v>
+        <v>63516417</v>
       </c>
       <c r="W4">
-        <v>4.683571428571432</v>
+        <v>7.015714285714283</v>
       </c>
       <c r="X4">
-        <v>757796849</v>
+        <v>743342477</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.005080178468878316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1">
-        <v>1254</v>
+        <v>1219</v>
       </c>
       <c r="B5" s="2">
-        <v>45562</v>
+        <v>45512</v>
       </c>
       <c r="C5">
-        <v>228.46</v>
+        <v>213.11</v>
       </c>
       <c r="D5">
-        <v>227.79</v>
+        <v>213.31</v>
       </c>
       <c r="E5">
-        <v>229.52</v>
+        <v>214.2</v>
       </c>
       <c r="F5">
-        <v>227.3</v>
+        <v>208.83</v>
       </c>
       <c r="G5">
-        <v>34025967</v>
+        <v>47161149</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -823,78 +823,78 @@
         <v>27</v>
       </c>
       <c r="K5">
-        <v>223.558</v>
+        <v>220.8535</v>
       </c>
       <c r="L5">
-        <v>224.5660640149962</v>
+        <v>217.2302940768335</v>
       </c>
       <c r="M5">
-        <v>62.20723917672107</v>
+        <v>35.30982905982906</v>
       </c>
       <c r="N5">
-        <v>225.4334692249444</v>
+        <v>215.7014384983624</v>
       </c>
       <c r="O5">
-        <v>224.0716190545594</v>
+        <v>217.0719103236209</v>
       </c>
       <c r="P5">
-        <v>1.361850170384969</v>
+        <v>-1.370471825258448</v>
       </c>
       <c r="Q5">
-        <v>0.8314408099012123</v>
+        <v>0.6750833968739048</v>
       </c>
       <c r="R5">
-        <v>223.558</v>
+        <v>220.8535</v>
       </c>
       <c r="S5">
-        <v>231.3529014375466</v>
+        <v>236.2790308191532</v>
       </c>
       <c r="T5">
-        <v>215.7630985624534</v>
+        <v>205.4279691808468</v>
       </c>
       <c r="U5">
-        <v>72.35263432446527</v>
+        <v>54.46821900566394</v>
       </c>
       <c r="V5">
-        <v>34025967</v>
+        <v>47161149</v>
       </c>
       <c r="W5">
-        <v>4.516428571428575</v>
+        <v>7.147499999999996</v>
       </c>
       <c r="X5">
-        <v>791822816</v>
+        <v>790503626</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001186708860759333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1">
-        <v>1255</v>
+        <v>1220</v>
       </c>
       <c r="B6" s="2">
-        <v>45565</v>
+        <v>45513</v>
       </c>
       <c r="C6">
-        <v>230.04</v>
+        <v>212.1</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>216.24</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>216.78</v>
       </c>
       <c r="F6">
-        <v>229.65</v>
+        <v>211.97</v>
       </c>
       <c r="G6">
-        <v>54793391</v>
+        <v>42201646</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -906,78 +906,78 @@
         <v>27</v>
       </c>
       <c r="K6">
-        <v>223.758</v>
+        <v>220.1385</v>
       </c>
       <c r="L6">
-        <v>225.369296013568</v>
+        <v>217.1359803552303</v>
       </c>
       <c r="M6">
-        <v>69.7760049094814</v>
+        <v>40.35482258870565</v>
       </c>
       <c r="N6">
-        <v>226.5975508826452</v>
+        <v>215.784294113999</v>
       </c>
       <c r="O6">
-        <v>224.7329806060735</v>
+        <v>217.010287336686</v>
       </c>
       <c r="P6">
-        <v>1.864570276571698</v>
+        <v>-1.225993222687038</v>
       </c>
       <c r="Q6">
-        <v>1.038066703235309</v>
+        <v>0.2948680729617164</v>
       </c>
       <c r="R6">
-        <v>223.758</v>
+        <v>220.1385</v>
       </c>
       <c r="S6">
-        <v>232.3093719428684</v>
+        <v>234.9884856813687</v>
       </c>
       <c r="T6">
-        <v>215.2066280571316</v>
+        <v>205.2885143186312</v>
       </c>
       <c r="U6">
-        <v>99.53051643192487</v>
+        <v>65.41693600517134</v>
       </c>
       <c r="V6">
-        <v>54793391</v>
+        <v>42201646</v>
       </c>
       <c r="W6">
-        <v>4.549285714285718</v>
+        <v>7.156071428571424</v>
       </c>
       <c r="X6">
-        <v>846616207</v>
+        <v>832705272</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02287194345669263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1">
-        <v>1256</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="2">
-        <v>45566</v>
+        <v>45516</v>
       </c>
       <c r="C7">
-        <v>229.505</v>
+        <v>216.07</v>
       </c>
       <c r="D7">
-        <v>226.21</v>
+        <v>217.53</v>
       </c>
       <c r="E7">
-        <v>229.65</v>
+        <v>219.5099</v>
       </c>
       <c r="F7">
-        <v>223.74</v>
+        <v>215.6</v>
       </c>
       <c r="G7">
-        <v>63285048</v>
+        <v>38028092</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -989,137 +989,3042 @@
         <v>27</v>
       </c>
       <c r="K7">
-        <v>223.93</v>
+        <v>219.2945</v>
       </c>
       <c r="L7">
-        <v>225.4493630598949</v>
+        <v>217.1735060356846</v>
       </c>
       <c r="M7">
-        <v>54.81944067336411</v>
+        <v>40.71038251366122</v>
       </c>
       <c r="N7">
-        <v>226.5379276699306</v>
+        <v>216.0528642503068</v>
       </c>
       <c r="O7">
-        <v>224.8423894500681</v>
+        <v>217.0487845710056</v>
       </c>
       <c r="P7">
-        <v>1.695538219862499</v>
+        <v>-0.9959203206987581</v>
       </c>
       <c r="Q7">
-        <v>1.169561006560747</v>
+        <v>0.0367103942296215</v>
       </c>
       <c r="R7">
-        <v>223.93</v>
+        <v>219.2945</v>
       </c>
       <c r="S7">
-        <v>232.5359073958112</v>
+        <v>232.5638687233344</v>
       </c>
       <c r="T7">
-        <v>215.3240926041888</v>
+        <v>206.0251312766657</v>
       </c>
       <c r="U7">
-        <v>64.11058946270219</v>
+        <v>72.73648648648651</v>
       </c>
       <c r="V7">
-        <v>63285048</v>
+        <v>38028092</v>
       </c>
       <c r="W7">
-        <v>4.839285714285716</v>
+        <v>7.131064285714282</v>
       </c>
       <c r="X7">
-        <v>783331159</v>
+        <v>870733364</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-0.02914163090128752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1">
+        <v>1222</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45517</v>
+      </c>
+      <c r="C8">
+        <v>219.01</v>
+      </c>
+      <c r="D8">
+        <v>221.27</v>
+      </c>
+      <c r="E8">
+        <v>221.89</v>
+      </c>
+      <c r="F8">
+        <v>219.01</v>
+      </c>
+      <c r="G8">
+        <v>44155331</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>218.617</v>
+      </c>
+      <c r="L8">
+        <v>217.5636483180003</v>
+      </c>
+      <c r="M8">
+        <v>53.63709032773783</v>
+      </c>
+      <c r="N8">
+        <v>216.8555005194904</v>
+      </c>
+      <c r="O8">
+        <v>217.3614671953755</v>
+      </c>
+      <c r="P8">
+        <v>-0.5059666758851336</v>
+      </c>
+      <c r="Q8">
+        <v>-0.07182501979332953</v>
+      </c>
+      <c r="R8">
+        <v>218.617</v>
+      </c>
+      <c r="S8">
+        <v>229.7623839394572</v>
+      </c>
+      <c r="T8">
+        <v>207.4716160605429</v>
+      </c>
+      <c r="U8">
+        <v>85.37162162162167</v>
+      </c>
+      <c r="V8">
+        <v>44155331</v>
+      </c>
+      <c r="W8">
+        <v>6.87963571428571</v>
+      </c>
+      <c r="X8">
+        <v>914888695</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>1223</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45518</v>
+      </c>
+      <c r="C9">
+        <v>220.57</v>
+      </c>
+      <c r="D9">
+        <v>221.72</v>
+      </c>
+      <c r="E9">
+        <v>223.03</v>
+      </c>
+      <c r="F9">
+        <v>219.7</v>
+      </c>
+      <c r="G9">
+        <v>41960574</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>218.259</v>
+      </c>
+      <c r="L9">
+        <v>217.9594913353336</v>
+      </c>
+      <c r="M9">
+        <v>55.72705117790413</v>
+      </c>
+      <c r="N9">
+        <v>217.6038850549534</v>
+      </c>
+      <c r="O9">
+        <v>217.6843214771995</v>
+      </c>
+      <c r="P9">
+        <v>-0.08043642224615155</v>
+      </c>
+      <c r="Q9">
+        <v>-0.07354730028389393</v>
+      </c>
+      <c r="R9">
+        <v>218.259</v>
+      </c>
+      <c r="S9">
+        <v>228.4340901198654</v>
+      </c>
+      <c r="T9">
+        <v>208.0839098801346</v>
+      </c>
+      <c r="U9">
+        <v>86.8918918918919</v>
+      </c>
+      <c r="V9">
+        <v>41960574</v>
+      </c>
+      <c r="W9">
+        <v>6.672492857142855</v>
+      </c>
+      <c r="X9">
+        <v>956849269</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>1224</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45519</v>
+      </c>
+      <c r="C10">
+        <v>224.6</v>
+      </c>
+      <c r="D10">
+        <v>224.72</v>
+      </c>
+      <c r="E10">
+        <v>225.35</v>
+      </c>
+      <c r="F10">
+        <v>222.76</v>
+      </c>
+      <c r="G10">
+        <v>46414013</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>218.286</v>
+      </c>
+      <c r="L10">
+        <v>218.6033493033971</v>
+      </c>
+      <c r="M10">
+        <v>58.56563608717687</v>
+      </c>
+      <c r="N10">
+        <v>218.698671969576</v>
+      </c>
+      <c r="O10">
+        <v>218.2054828492588</v>
+      </c>
+      <c r="P10">
+        <v>0.4931891203171404</v>
+      </c>
+      <c r="Q10">
+        <v>0.03979998383631293</v>
+      </c>
+      <c r="R10">
+        <v>218.286</v>
+      </c>
+      <c r="S10">
+        <v>228.5298775553223</v>
+      </c>
+      <c r="T10">
+        <v>208.0421224446777</v>
+      </c>
+      <c r="U10">
+        <v>97.02702702702705</v>
+      </c>
+      <c r="V10">
+        <v>46414013</v>
+      </c>
+      <c r="W10">
+        <v>6.683207142857138</v>
+      </c>
+      <c r="X10">
+        <v>1003263282</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0.01353057910878586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45520</v>
+      </c>
+      <c r="C11">
+        <v>223.92</v>
+      </c>
+      <c r="D11">
+        <v>226.05</v>
+      </c>
+      <c r="E11">
+        <v>226.8271</v>
+      </c>
+      <c r="F11">
+        <v>223.6501</v>
+      </c>
+      <c r="G11">
+        <v>44340240</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>218.373</v>
+      </c>
+      <c r="L11">
+        <v>219.312554131645</v>
+      </c>
+      <c r="M11">
+        <v>59.63959516168847</v>
+      </c>
+      <c r="N11">
+        <v>219.8296455127181</v>
+      </c>
+      <c r="O11">
+        <v>218.7865581937582</v>
+      </c>
+      <c r="P11">
+        <v>1.043087318959977</v>
+      </c>
+      <c r="Q11">
+        <v>0.2404574508610456</v>
+      </c>
+      <c r="R11">
+        <v>218.373</v>
+      </c>
+      <c r="S11">
+        <v>228.8589868395881</v>
+      </c>
+      <c r="T11">
+        <v>207.8870131604119</v>
+      </c>
+      <c r="U11">
+        <v>97.47916605843562</v>
+      </c>
+      <c r="V11">
+        <v>44340240</v>
+      </c>
+      <c r="W11">
+        <v>6.65656428571428</v>
+      </c>
+      <c r="X11">
+        <v>1047603522</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45523</v>
+      </c>
+      <c r="C12">
+        <v>225.72</v>
+      </c>
+      <c r="D12">
+        <v>225.89</v>
+      </c>
+      <c r="E12">
+        <v>225.99</v>
+      </c>
+      <c r="F12">
+        <v>223.04</v>
+      </c>
+      <c r="G12">
+        <v>40687813</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>218.4695</v>
+      </c>
+      <c r="L12">
+        <v>219.9389775476788</v>
+      </c>
+      <c r="M12">
+        <v>58.83819496384937</v>
+      </c>
+      <c r="N12">
+        <v>220.7620077415307</v>
+      </c>
+      <c r="O12">
+        <v>219.3127390682946</v>
+      </c>
+      <c r="P12">
+        <v>1.449268673236134</v>
+      </c>
+      <c r="Q12">
+        <v>0.4822196953360632</v>
+      </c>
+      <c r="R12">
+        <v>218.4695</v>
+      </c>
+      <c r="S12">
+        <v>229.2045394797408</v>
+      </c>
+      <c r="T12">
+        <v>207.7344605202592</v>
+      </c>
+      <c r="U12">
+        <v>96.96014221253373</v>
+      </c>
+      <c r="V12">
+        <v>40687813</v>
+      </c>
+      <c r="W12">
+        <v>6.57120714285714</v>
+      </c>
+      <c r="X12">
+        <v>1006915709</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1">
+        <v>1227</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45524</v>
+      </c>
+      <c r="C13">
+        <v>225.77</v>
+      </c>
+      <c r="D13">
+        <v>226.51</v>
+      </c>
+      <c r="E13">
+        <v>227.17</v>
+      </c>
+      <c r="F13">
+        <v>225.45</v>
+      </c>
+      <c r="G13">
+        <v>30299033</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>218.5445</v>
+      </c>
+      <c r="L13">
+        <v>220.5647892098046</v>
+      </c>
+      <c r="M13">
+        <v>55.91455273698261</v>
+      </c>
+      <c r="N13">
+        <v>221.6463142428337</v>
+      </c>
+      <c r="O13">
+        <v>219.8458695076802</v>
+      </c>
+      <c r="P13">
+        <v>1.800444735153519</v>
+      </c>
+      <c r="Q13">
+        <v>0.7458647032995545</v>
+      </c>
+      <c r="R13">
+        <v>218.5445</v>
+      </c>
+      <c r="S13">
+        <v>229.4908196891401</v>
+      </c>
+      <c r="T13">
+        <v>207.5981803108599</v>
+      </c>
+      <c r="U13">
+        <v>97.88257940327239</v>
+      </c>
+      <c r="V13">
+        <v>30299033</v>
+      </c>
+      <c r="W13">
+        <v>6.335492857142855</v>
+      </c>
+      <c r="X13">
+        <v>1037214742</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45525</v>
+      </c>
+      <c r="C14">
+        <v>226.52</v>
+      </c>
+      <c r="D14">
+        <v>226.4</v>
+      </c>
+      <c r="E14">
+        <v>227.98</v>
+      </c>
+      <c r="F14">
+        <v>225.05</v>
+      </c>
+      <c r="G14">
+        <v>34765480</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>218.9375</v>
+      </c>
+      <c r="L14">
+        <v>221.1205235707756</v>
+      </c>
+      <c r="M14">
+        <v>61.87943262411344</v>
+      </c>
+      <c r="N14">
+        <v>222.377650513167</v>
+      </c>
+      <c r="O14">
+        <v>220.3313606552594</v>
+      </c>
+      <c r="P14">
+        <v>2.046289857907567</v>
+      </c>
+      <c r="Q14">
+        <v>1.005949734221157</v>
+      </c>
+      <c r="R14">
+        <v>218.9375</v>
+      </c>
+      <c r="S14">
+        <v>230.4337142510166</v>
+      </c>
+      <c r="T14">
+        <v>207.4412857489834</v>
+      </c>
+      <c r="U14">
+        <v>95.05941213258291</v>
+      </c>
+      <c r="V14">
+        <v>34765480</v>
+      </c>
+      <c r="W14">
+        <v>6.011921428571426</v>
+      </c>
+      <c r="X14">
+        <v>1002449262</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1">
+        <v>1229</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45526</v>
+      </c>
+      <c r="C15">
+        <v>227.79</v>
+      </c>
+      <c r="D15">
+        <v>224.53</v>
+      </c>
+      <c r="E15">
+        <v>228.34</v>
+      </c>
+      <c r="F15">
+        <v>223.9</v>
+      </c>
+      <c r="G15">
+        <v>43695321</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>219.2895</v>
+      </c>
+      <c r="L15">
+        <v>221.4452356116541</v>
+      </c>
+      <c r="M15">
+        <v>56.82548962291725</v>
+      </c>
+      <c r="N15">
+        <v>222.708781203449</v>
+      </c>
+      <c r="O15">
+        <v>220.6423709770921</v>
+      </c>
+      <c r="P15">
+        <v>2.066410226356936</v>
+      </c>
+      <c r="Q15">
+        <v>1.218041832648313</v>
+      </c>
+      <c r="R15">
+        <v>219.2895</v>
+      </c>
+      <c r="S15">
+        <v>231.0276671213369</v>
+      </c>
+      <c r="T15">
+        <v>207.5513328786631</v>
+      </c>
+      <c r="U15">
+        <v>88.21892393320964</v>
+      </c>
+      <c r="V15">
+        <v>43695321</v>
+      </c>
+      <c r="W15">
+        <v>5.765492857142855</v>
+      </c>
+      <c r="X15">
+        <v>958753941</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>-0.008259717314487602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45527</v>
+      </c>
+      <c r="C16">
+        <v>225.6589</v>
+      </c>
+      <c r="D16">
+        <v>226.84</v>
+      </c>
+      <c r="E16">
+        <v>228.22</v>
+      </c>
+      <c r="F16">
+        <v>224.33</v>
+      </c>
+      <c r="G16">
+        <v>38677250</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>219.7335</v>
+      </c>
+      <c r="L16">
+        <v>221.9590226962585</v>
+      </c>
+      <c r="M16">
+        <v>83.8796760509062</v>
+      </c>
+      <c r="N16">
+        <v>223.3443533259953</v>
+      </c>
+      <c r="O16">
+        <v>221.1014546084186</v>
+      </c>
+      <c r="P16">
+        <v>2.242898717576736</v>
+      </c>
+      <c r="Q16">
+        <v>1.423013209633998</v>
+      </c>
+      <c r="R16">
+        <v>219.7335</v>
+      </c>
+      <c r="S16">
+        <v>231.923024881722</v>
+      </c>
+      <c r="T16">
+        <v>207.543975118278</v>
+      </c>
+      <c r="U16">
+        <v>94.49944994499451</v>
+      </c>
+      <c r="V16">
+        <v>38677250</v>
+      </c>
+      <c r="W16">
+        <v>4.339064285714282</v>
+      </c>
+      <c r="X16">
+        <v>997431191</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0.01028815748452327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1">
+        <v>1231</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C17">
+        <v>226.76</v>
+      </c>
+      <c r="D17">
+        <v>227.18</v>
+      </c>
+      <c r="E17">
+        <v>227.28</v>
+      </c>
+      <c r="F17">
+        <v>223.8905</v>
+      </c>
+      <c r="G17">
+        <v>30602208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>220.1805</v>
+      </c>
+      <c r="L17">
+        <v>222.4562586299482</v>
+      </c>
+      <c r="M17">
+        <v>91.16797358646302</v>
+      </c>
+      <c r="N17">
+        <v>223.9344528143037</v>
+      </c>
+      <c r="O17">
+        <v>221.5517172300172</v>
+      </c>
+      <c r="P17">
+        <v>2.382735584286507</v>
+      </c>
+      <c r="Q17">
+        <v>1.6149576845645</v>
+      </c>
+      <c r="R17">
+        <v>220.1805</v>
+      </c>
+      <c r="S17">
+        <v>232.7879338555103</v>
+      </c>
+      <c r="T17">
+        <v>207.5730661444897</v>
+      </c>
+      <c r="U17">
+        <v>94.71526195899774</v>
+      </c>
+      <c r="V17">
+        <v>30602208</v>
+      </c>
+      <c r="W17">
+        <v>3.944028571428567</v>
+      </c>
+      <c r="X17">
+        <v>1028033399</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0.001498853817668788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1">
+        <v>1232</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C18">
+        <v>225.995</v>
+      </c>
+      <c r="D18">
+        <v>228.03</v>
+      </c>
+      <c r="E18">
+        <v>228.85</v>
+      </c>
+      <c r="F18">
+        <v>224.89</v>
+      </c>
+      <c r="G18">
+        <v>35934559</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>220.642</v>
+      </c>
+      <c r="L18">
+        <v>222.9870911413817</v>
+      </c>
+      <c r="M18">
+        <v>90.48465984882165</v>
+      </c>
+      <c r="N18">
+        <v>224.5645369967185</v>
+      </c>
+      <c r="O18">
+        <v>222.0315900277937</v>
+      </c>
+      <c r="P18">
+        <v>2.53294696892479</v>
+      </c>
+      <c r="Q18">
+        <v>1.798555541436558</v>
+      </c>
+      <c r="R18">
+        <v>220.642</v>
+      </c>
+      <c r="S18">
+        <v>233.7041938997129</v>
+      </c>
+      <c r="T18">
+        <v>207.579806100287</v>
+      </c>
+      <c r="U18">
+        <v>95.90409590409593</v>
+      </c>
+      <c r="V18">
+        <v>35934559</v>
+      </c>
+      <c r="W18">
+        <v>3.709028571428568</v>
+      </c>
+      <c r="X18">
+        <v>1063967958</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0.003741526542829554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C19">
+        <v>227.92</v>
+      </c>
+      <c r="D19">
+        <v>226.49</v>
+      </c>
+      <c r="E19">
+        <v>229.86</v>
+      </c>
+      <c r="F19">
+        <v>225.68</v>
+      </c>
+      <c r="G19">
+        <v>38052167</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>220.8625</v>
+      </c>
+      <c r="L19">
+        <v>223.3207015088691</v>
+      </c>
+      <c r="M19">
+        <v>82.08373904576435</v>
+      </c>
+      <c r="N19">
+        <v>224.8607620741464</v>
+      </c>
+      <c r="O19">
+        <v>222.3618426183275</v>
+      </c>
+      <c r="P19">
+        <v>2.498919455818907</v>
+      </c>
+      <c r="Q19">
+        <v>1.938628324313028</v>
+      </c>
+      <c r="R19">
+        <v>220.8625</v>
+      </c>
+      <c r="S19">
+        <v>234.1734228989228</v>
+      </c>
+      <c r="T19">
+        <v>207.5515771010772</v>
+      </c>
+      <c r="U19">
+        <v>81.16266070430407</v>
+      </c>
+      <c r="V19">
+        <v>38052167</v>
+      </c>
+      <c r="W19">
+        <v>3.62402857142857</v>
+      </c>
+      <c r="X19">
+        <v>1025915791</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>-0.006753497346840276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45533</v>
+      </c>
+      <c r="C20">
+        <v>230.1</v>
+      </c>
+      <c r="D20">
+        <v>229.79</v>
+      </c>
+      <c r="E20">
+        <v>232.92</v>
+      </c>
+      <c r="F20">
+        <v>228.88</v>
+      </c>
+      <c r="G20">
+        <v>51906297</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>221.434</v>
+      </c>
+      <c r="L20">
+        <v>223.9368251746911</v>
+      </c>
+      <c r="M20">
+        <v>82.40076518412239</v>
+      </c>
+      <c r="N20">
+        <v>225.6191063704316</v>
+      </c>
+      <c r="O20">
+        <v>222.9120764984514</v>
+      </c>
+      <c r="P20">
+        <v>2.707029871980183</v>
+      </c>
+      <c r="Q20">
+        <v>2.092308633846458</v>
+      </c>
+      <c r="R20">
+        <v>221.434</v>
+      </c>
+      <c r="S20">
+        <v>235.263896525092</v>
+      </c>
+      <c r="T20">
+        <v>207.604103474908</v>
+      </c>
+      <c r="U20">
+        <v>81.92840646651273</v>
+      </c>
+      <c r="V20">
+        <v>51906297</v>
+      </c>
+      <c r="W20">
+        <v>3.739742857142854</v>
+      </c>
+      <c r="X20">
+        <v>1077822088</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0.01457017969888286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45534</v>
+      </c>
+      <c r="C21">
+        <v>230.19</v>
+      </c>
+      <c r="D21">
+        <v>229</v>
+      </c>
+      <c r="E21">
+        <v>230.4</v>
+      </c>
+      <c r="F21">
+        <v>227.48</v>
+      </c>
+      <c r="G21">
+        <v>52990770</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>221.891</v>
+      </c>
+      <c r="L21">
+        <v>224.419032300911</v>
+      </c>
+      <c r="M21">
+        <v>78.09897109260167</v>
+      </c>
+      <c r="N21">
+        <v>226.1392438519037</v>
+      </c>
+      <c r="O21">
+        <v>223.3630337948624</v>
+      </c>
+      <c r="P21">
+        <v>2.776210057041226</v>
+      </c>
+      <c r="Q21">
+        <v>2.229088918485412</v>
+      </c>
+      <c r="R21">
+        <v>221.891</v>
+      </c>
+      <c r="S21">
+        <v>236.1007340987757</v>
+      </c>
+      <c r="T21">
+        <v>207.6812659012243</v>
+      </c>
+      <c r="U21">
+        <v>71.81883537023732</v>
+      </c>
+      <c r="V21">
+        <v>52990770</v>
+      </c>
+      <c r="W21">
+        <v>3.669035714285712</v>
+      </c>
+      <c r="X21">
+        <v>1024831318</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45538</v>
+      </c>
+      <c r="C22">
+        <v>228.55</v>
+      </c>
+      <c r="D22">
+        <v>222.77</v>
+      </c>
+      <c r="E22">
+        <v>229</v>
+      </c>
+      <c r="F22">
+        <v>221.17</v>
+      </c>
+      <c r="G22">
+        <v>50190574</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>222.566</v>
+      </c>
+      <c r="L22">
+        <v>224.2619816055862</v>
+      </c>
+      <c r="M22">
+        <v>53.27510917030568</v>
+      </c>
+      <c r="N22">
+        <v>225.6208986439185</v>
+      </c>
+      <c r="O22">
+        <v>223.3191053656134</v>
+      </c>
+      <c r="P22">
+        <v>2.301793278305098</v>
+      </c>
+      <c r="Q22">
+        <v>2.243629790449349</v>
+      </c>
+      <c r="R22">
+        <v>222.566</v>
+      </c>
+      <c r="S22">
+        <v>235.4743741077363</v>
+      </c>
+      <c r="T22">
+        <v>209.6576258922637</v>
+      </c>
+      <c r="U22">
+        <v>23.22239031770062</v>
+      </c>
+      <c r="V22">
+        <v>50190574</v>
+      </c>
+      <c r="W22">
+        <v>3.916892857142857</v>
+      </c>
+      <c r="X22">
+        <v>974640744</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>-0.02720524017467241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45539</v>
+      </c>
+      <c r="C23">
+        <v>221.66</v>
+      </c>
+      <c r="D23">
+        <v>220.85</v>
+      </c>
+      <c r="E23">
+        <v>221.78</v>
+      </c>
+      <c r="F23">
+        <v>217.48</v>
+      </c>
+      <c r="G23">
+        <v>43840196</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>223.247</v>
+      </c>
+      <c r="L23">
+        <v>223.9370309764827</v>
+      </c>
+      <c r="M23">
+        <v>48.21501846532622</v>
+      </c>
+      <c r="N23">
+        <v>224.8869142371618</v>
+      </c>
+      <c r="O23">
+        <v>223.1362086718642</v>
+      </c>
+      <c r="P23">
+        <v>1.750705565297551</v>
+      </c>
+      <c r="Q23">
+        <v>2.14504494541899</v>
+      </c>
+      <c r="R23">
+        <v>223.247</v>
+      </c>
+      <c r="S23">
+        <v>234.0070686751875</v>
+      </c>
+      <c r="T23">
+        <v>212.4869313248125</v>
+      </c>
+      <c r="U23">
+        <v>21.82642487046635</v>
+      </c>
+      <c r="V23">
+        <v>43840196</v>
+      </c>
+      <c r="W23">
+        <v>4.056892857142858</v>
+      </c>
+      <c r="X23">
+        <v>930800548</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45540</v>
+      </c>
+      <c r="C24">
+        <v>221.625</v>
+      </c>
+      <c r="D24">
+        <v>222.38</v>
+      </c>
+      <c r="E24">
+        <v>225.48</v>
+      </c>
+      <c r="F24">
+        <v>221.52</v>
+      </c>
+      <c r="G24">
+        <v>36615398</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>223.875</v>
+      </c>
+      <c r="L24">
+        <v>223.7887423120558</v>
+      </c>
+      <c r="M24">
+        <v>44.89082969432314</v>
+      </c>
+      <c r="N24">
+        <v>224.5012351237523</v>
+      </c>
+      <c r="O24">
+        <v>223.0801932146891</v>
+      </c>
+      <c r="P24">
+        <v>1.421041909063149</v>
+      </c>
+      <c r="Q24">
+        <v>2.000244338147822</v>
+      </c>
+      <c r="R24">
+        <v>223.875</v>
+      </c>
+      <c r="S24">
+        <v>232.6112559727303</v>
+      </c>
+      <c r="T24">
+        <v>215.1387440272697</v>
+      </c>
+      <c r="U24">
+        <v>31.73575129533683</v>
+      </c>
+      <c r="V24">
+        <v>36615398</v>
+      </c>
+      <c r="W24">
+        <v>4.12832142857143</v>
+      </c>
+      <c r="X24">
+        <v>967415946</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0.006927779035544424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45541</v>
+      </c>
+      <c r="C25">
+        <v>223.95</v>
+      </c>
+      <c r="D25">
+        <v>220.82</v>
+      </c>
+      <c r="E25">
+        <v>225.24</v>
+      </c>
+      <c r="F25">
+        <v>219.77</v>
+      </c>
+      <c r="G25">
+        <v>48423011</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>224.2505</v>
+      </c>
+      <c r="L25">
+        <v>223.5060049490029</v>
+      </c>
+      <c r="M25">
+        <v>38.69433635970597</v>
+      </c>
+      <c r="N25">
+        <v>223.9348912585596</v>
+      </c>
+      <c r="O25">
+        <v>222.9127714950825</v>
+      </c>
+      <c r="P25">
+        <v>1.022119763477093</v>
+      </c>
+      <c r="Q25">
+        <v>1.804619423213676</v>
+      </c>
+      <c r="R25">
+        <v>224.2505</v>
+      </c>
+      <c r="S25">
+        <v>231.6121945274715</v>
+      </c>
+      <c r="T25">
+        <v>216.8888054725286</v>
+      </c>
+      <c r="U25">
+        <v>21.63212435233163</v>
+      </c>
+      <c r="V25">
+        <v>48423011</v>
+      </c>
+      <c r="W25">
+        <v>4.292107142857144</v>
+      </c>
+      <c r="X25">
+        <v>918992935</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>-0.007015019336271244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C26">
+        <v>220.82</v>
+      </c>
+      <c r="D26">
+        <v>220.91</v>
+      </c>
+      <c r="E26">
+        <v>221.27</v>
+      </c>
+      <c r="F26">
+        <v>216.71</v>
+      </c>
+      <c r="G26">
+        <v>67179965</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>224.484</v>
+      </c>
+      <c r="L26">
+        <v>223.2587663824311</v>
+      </c>
+      <c r="M26">
+        <v>39.20208152645274</v>
+      </c>
+      <c r="N26">
+        <v>223.4695233726274</v>
+      </c>
+      <c r="O26">
+        <v>222.7644180510023</v>
+      </c>
+      <c r="P26">
+        <v>0.7051053216250409</v>
+      </c>
+      <c r="Q26">
+        <v>1.584716602895949</v>
+      </c>
+      <c r="R26">
+        <v>224.484</v>
+      </c>
+      <c r="S26">
+        <v>231.0265647634719</v>
+      </c>
+      <c r="T26">
+        <v>217.9414352365281</v>
+      </c>
+      <c r="U26">
+        <v>25.90993214065388</v>
+      </c>
+      <c r="V26">
+        <v>67179965</v>
+      </c>
+      <c r="W26">
+        <v>4.402821428571428</v>
+      </c>
+      <c r="X26">
+        <v>986172900</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0.0004075717779186139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45545</v>
+      </c>
+      <c r="C27">
+        <v>218.92</v>
+      </c>
+      <c r="D27">
+        <v>220.11</v>
+      </c>
+      <c r="E27">
+        <v>221.48</v>
+      </c>
+      <c r="F27">
+        <v>216.73</v>
+      </c>
+      <c r="G27">
+        <v>51591033</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>224.613</v>
+      </c>
+      <c r="L27">
+        <v>222.9588838698186</v>
+      </c>
+      <c r="M27">
+        <v>36.23063683304649</v>
+      </c>
+      <c r="N27">
+        <v>222.9526736229924</v>
+      </c>
+      <c r="O27">
+        <v>222.5677944916688</v>
+      </c>
+      <c r="P27">
+        <v>0.3848791313235722</v>
+      </c>
+      <c r="Q27">
+        <v>1.344749108581474</v>
+      </c>
+      <c r="R27">
+        <v>224.613</v>
+      </c>
+      <c r="S27">
+        <v>230.6613215592612</v>
+      </c>
+      <c r="T27">
+        <v>218.5646784407387</v>
+      </c>
+      <c r="U27">
+        <v>20.97470697100561</v>
+      </c>
+      <c r="V27">
+        <v>51591033</v>
+      </c>
+      <c r="W27">
+        <v>4.61925</v>
+      </c>
+      <c r="X27">
+        <v>934581867</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>-0.003621384274138717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45546</v>
+      </c>
+      <c r="C28">
+        <v>221.455</v>
+      </c>
+      <c r="D28">
+        <v>222.66</v>
+      </c>
+      <c r="E28">
+        <v>223.09</v>
+      </c>
+      <c r="F28">
+        <v>217.89</v>
+      </c>
+      <c r="G28">
+        <v>44587072</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>224.6825</v>
+      </c>
+      <c r="L28">
+        <v>222.9304187393597</v>
+      </c>
+      <c r="M28">
+        <v>42.71806853582551</v>
+      </c>
+      <c r="N28">
+        <v>222.9076469117628</v>
+      </c>
+      <c r="O28">
+        <v>222.574624529323</v>
+      </c>
+      <c r="P28">
+        <v>0.3330223824398217</v>
+      </c>
+      <c r="Q28">
+        <v>1.142403763353143</v>
+      </c>
+      <c r="R28">
+        <v>224.6825</v>
+      </c>
+      <c r="S28">
+        <v>230.5996005524144</v>
+      </c>
+      <c r="T28">
+        <v>218.7653994475857</v>
+      </c>
+      <c r="U28">
+        <v>36.70573719925969</v>
+      </c>
+      <c r="V28">
+        <v>44587072</v>
+      </c>
+      <c r="W28">
+        <v>4.78139285714286</v>
+      </c>
+      <c r="X28">
+        <v>979168939</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0.0115851165326426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45547</v>
+      </c>
+      <c r="C29">
+        <v>222.5</v>
+      </c>
+      <c r="D29">
+        <v>222.77</v>
+      </c>
+      <c r="E29">
+        <v>223.55</v>
+      </c>
+      <c r="F29">
+        <v>219.82</v>
+      </c>
+      <c r="G29">
+        <v>37498225</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>224.735</v>
+      </c>
+      <c r="L29">
+        <v>222.9151407641826</v>
+      </c>
+      <c r="M29">
+        <v>46.32107023411373</v>
+      </c>
+      <c r="N29">
+        <v>222.8864704637993</v>
+      </c>
+      <c r="O29">
+        <v>222.5890967864102</v>
+      </c>
+      <c r="P29">
+        <v>0.2973736773891176</v>
+      </c>
+      <c r="Q29">
+        <v>0.9733977461603384</v>
+      </c>
+      <c r="R29">
+        <v>224.735</v>
+      </c>
+      <c r="S29">
+        <v>230.5593319020534</v>
+      </c>
+      <c r="T29">
+        <v>218.9106680979466</v>
+      </c>
+      <c r="U29">
+        <v>37.38433066008643</v>
+      </c>
+      <c r="V29">
+        <v>37498225</v>
+      </c>
+      <c r="W29">
+        <v>4.730678571428576</v>
+      </c>
+      <c r="X29">
+        <v>1016667164</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0.0004940267672686183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45548</v>
+      </c>
+      <c r="C30">
+        <v>223.58</v>
+      </c>
+      <c r="D30">
+        <v>222.5</v>
+      </c>
+      <c r="E30">
+        <v>224.04</v>
+      </c>
+      <c r="F30">
+        <v>221.91</v>
+      </c>
+      <c r="G30">
+        <v>36766619</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>224.624</v>
+      </c>
+      <c r="L30">
+        <v>222.8756035485462</v>
+      </c>
+      <c r="M30">
+        <v>40.08226691042045</v>
+      </c>
+      <c r="N30">
+        <v>222.8270134693686</v>
+      </c>
+      <c r="O30">
+        <v>222.5824970244539</v>
+      </c>
+      <c r="P30">
+        <v>0.2445164449147796</v>
+      </c>
+      <c r="Q30">
+        <v>0.8276214859112266</v>
+      </c>
+      <c r="R30">
+        <v>224.624</v>
+      </c>
+      <c r="S30">
+        <v>230.5335298592958</v>
+      </c>
+      <c r="T30">
+        <v>218.7144701407042</v>
+      </c>
+      <c r="U30">
+        <v>35.71869216533004</v>
+      </c>
+      <c r="V30">
+        <v>36766619</v>
+      </c>
+      <c r="W30">
+        <v>4.60496428571429</v>
+      </c>
+      <c r="X30">
+        <v>979900545</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>-0.001212012389460004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45551</v>
+      </c>
+      <c r="C31">
+        <v>216.54</v>
+      </c>
+      <c r="D31">
+        <v>216.32</v>
+      </c>
+      <c r="E31">
+        <v>217.22</v>
+      </c>
+      <c r="F31">
+        <v>213.92</v>
+      </c>
+      <c r="G31">
+        <v>59357427</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>224.1375</v>
+      </c>
+      <c r="L31">
+        <v>222.2512603534466</v>
+      </c>
+      <c r="M31">
+        <v>30.41125541125537</v>
+      </c>
+      <c r="N31">
+        <v>221.8259344740812</v>
+      </c>
+      <c r="O31">
+        <v>222.1186083559758</v>
+      </c>
+      <c r="P31">
+        <v>-0.2926738818946149</v>
+      </c>
+      <c r="Q31">
+        <v>0.6035624123500584</v>
+      </c>
+      <c r="R31">
+        <v>224.1375</v>
+      </c>
+      <c r="S31">
+        <v>231.0667875763532</v>
+      </c>
+      <c r="T31">
+        <v>217.2082124236468</v>
+      </c>
+      <c r="U31">
+        <v>12.63157894736845</v>
+      </c>
+      <c r="V31">
+        <v>59357427</v>
+      </c>
+      <c r="W31">
+        <v>4.975714285714291</v>
+      </c>
+      <c r="X31">
+        <v>920543118</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>-0.02777528089887649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45552</v>
+      </c>
+      <c r="C32">
+        <v>215.75</v>
+      </c>
+      <c r="D32">
+        <v>216.79</v>
+      </c>
+      <c r="E32">
+        <v>216.9</v>
+      </c>
+      <c r="F32">
+        <v>214.5</v>
+      </c>
+      <c r="G32">
+        <v>45519339</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <v>223.6825</v>
+      </c>
+      <c r="L32">
+        <v>221.731140319785</v>
+      </c>
+      <c r="M32">
+        <v>29.44403803950253</v>
+      </c>
+      <c r="N32">
+        <v>221.0511753242225</v>
+      </c>
+      <c r="O32">
+        <v>221.7238966259035</v>
+      </c>
+      <c r="P32">
+        <v>-0.6727213016809799</v>
+      </c>
+      <c r="Q32">
+        <v>0.3483056695438507</v>
+      </c>
+      <c r="R32">
+        <v>223.6825</v>
+      </c>
+      <c r="S32">
+        <v>231.2892196747705</v>
+      </c>
+      <c r="T32">
+        <v>216.0757803252295</v>
+      </c>
+      <c r="U32">
+        <v>15.10526315789476</v>
+      </c>
+      <c r="V32">
+        <v>45519339</v>
+      </c>
+      <c r="W32">
+        <v>4.86428571428572</v>
+      </c>
+      <c r="X32">
+        <v>966062457</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>0.002172707100591698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45553</v>
+      </c>
+      <c r="C33">
+        <v>217.55</v>
+      </c>
+      <c r="D33">
+        <v>220.69</v>
+      </c>
+      <c r="E33">
+        <v>222.71</v>
+      </c>
+      <c r="F33">
+        <v>217.54</v>
+      </c>
+      <c r="G33">
+        <v>59894928</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33">
+        <v>223.3915</v>
+      </c>
+      <c r="L33">
+        <v>221.6319840988531</v>
+      </c>
+      <c r="M33">
+        <v>40.23569023569022</v>
+      </c>
+      <c r="N33">
+        <v>220.9956098897268</v>
+      </c>
+      <c r="O33">
+        <v>221.6473116906514</v>
+      </c>
+      <c r="P33">
+        <v>-0.6517018009246556</v>
+      </c>
+      <c r="Q33">
+        <v>0.1483041754501495</v>
+      </c>
+      <c r="R33">
+        <v>223.3915</v>
+      </c>
+      <c r="S33">
+        <v>230.9880650824992</v>
+      </c>
+      <c r="T33">
+        <v>215.7949349175008</v>
+      </c>
+      <c r="U33">
+        <v>35.63157894736847</v>
+      </c>
+      <c r="V33">
+        <v>59894928</v>
+      </c>
+      <c r="W33">
+        <v>4.988571428571435</v>
+      </c>
+      <c r="X33">
+        <v>1025957385</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>0.01798975967526184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45554</v>
+      </c>
+      <c r="C34">
+        <v>224.99</v>
+      </c>
+      <c r="D34">
+        <v>228.87</v>
+      </c>
+      <c r="E34">
+        <v>229.82</v>
+      </c>
+      <c r="F34">
+        <v>224.63</v>
+      </c>
+      <c r="G34">
+        <v>66781315</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34">
+        <v>223.515</v>
+      </c>
+      <c r="L34">
+        <v>222.3213189465814</v>
+      </c>
+      <c r="M34">
+        <v>48.66975130133027</v>
+      </c>
+      <c r="N34">
+        <v>222.2070545220765</v>
+      </c>
+      <c r="O34">
+        <v>222.182325639492</v>
+      </c>
+      <c r="P34">
+        <v>0.02472888258444073</v>
+      </c>
+      <c r="Q34">
+        <v>0.1235891168770077</v>
+      </c>
+      <c r="R34">
+        <v>223.515</v>
+      </c>
+      <c r="S34">
+        <v>231.3926151881547</v>
+      </c>
+      <c r="T34">
+        <v>215.6373848118453</v>
+      </c>
+      <c r="U34">
+        <v>90.71601941747574</v>
+      </c>
+      <c r="V34">
+        <v>66781315</v>
+      </c>
+      <c r="W34">
+        <v>5.181428571428579</v>
+      </c>
+      <c r="X34">
+        <v>1092738700</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0.03706556708505149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45555</v>
+      </c>
+      <c r="C35">
+        <v>229.97</v>
+      </c>
+      <c r="D35">
+        <v>228.2</v>
+      </c>
+      <c r="E35">
+        <v>233.09</v>
+      </c>
+      <c r="F35">
+        <v>227.62</v>
+      </c>
+      <c r="G35">
+        <v>318679888</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>223.6985</v>
+      </c>
+      <c r="L35">
+        <v>222.8811933326213</v>
+      </c>
+      <c r="M35">
+        <v>48.83923389437027</v>
+      </c>
+      <c r="N35">
+        <v>223.1290461340647</v>
+      </c>
+      <c r="O35">
+        <v>222.628079295826</v>
+      </c>
+      <c r="P35">
+        <v>0.5009668382387531</v>
+      </c>
+      <c r="Q35">
+        <v>0.1990646611493568</v>
+      </c>
+      <c r="R35">
+        <v>223.6985</v>
+      </c>
+      <c r="S35">
+        <v>231.8421504810748</v>
+      </c>
+      <c r="T35">
+        <v>215.5548495189253</v>
+      </c>
+      <c r="U35">
+        <v>74.49139280125191</v>
+      </c>
+      <c r="V35">
+        <v>318679888</v>
+      </c>
+      <c r="W35">
+        <v>5.363571428571435</v>
+      </c>
+      <c r="X35">
+        <v>774058812</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>-0.002927426049722626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45558</v>
+      </c>
+      <c r="C36">
+        <v>227.34</v>
+      </c>
+      <c r="D36">
+        <v>226.47</v>
+      </c>
+      <c r="E36">
+        <v>229.45</v>
+      </c>
+      <c r="F36">
+        <v>225.81</v>
+      </c>
+      <c r="G36">
+        <v>54146023</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36">
+        <v>223.68</v>
+      </c>
+      <c r="L36">
+        <v>223.2229844438002</v>
+      </c>
+      <c r="M36">
+        <v>56.17489986648862</v>
+      </c>
+      <c r="N36">
+        <v>223.6430390365163</v>
+      </c>
+      <c r="O36">
+        <v>222.9126660146537</v>
+      </c>
+      <c r="P36">
+        <v>0.730373021862647</v>
+      </c>
+      <c r="Q36">
+        <v>0.3053263332920149</v>
+      </c>
+      <c r="R36">
+        <v>223.68</v>
+      </c>
+      <c r="S36">
+        <v>231.7952332391824</v>
+      </c>
+      <c r="T36">
+        <v>215.5647667608177</v>
+      </c>
+      <c r="U36">
+        <v>65.46687532603026</v>
+      </c>
+      <c r="V36">
+        <v>54146023</v>
+      </c>
+      <c r="W36">
+        <v>5.064285714285718</v>
+      </c>
+      <c r="X36">
+        <v>719912789</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>-0.007581069237510896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45559</v>
+      </c>
+      <c r="C37">
+        <v>228.645</v>
+      </c>
+      <c r="D37">
+        <v>227.37</v>
+      </c>
+      <c r="E37">
+        <v>229.35</v>
+      </c>
+      <c r="F37">
+        <v>225.73</v>
+      </c>
+      <c r="G37">
+        <v>43556068</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37">
+        <v>223.6895</v>
+      </c>
+      <c r="L37">
+        <v>223.6179383062954</v>
+      </c>
+      <c r="M37">
+        <v>61.26468555632344</v>
+      </c>
+      <c r="N37">
+        <v>224.216417646283</v>
+      </c>
+      <c r="O37">
+        <v>223.2428389024571</v>
+      </c>
+      <c r="P37">
+        <v>0.9735787438259251</v>
+      </c>
+      <c r="Q37">
+        <v>0.438976815398797</v>
+      </c>
+      <c r="R37">
+        <v>223.6895</v>
+      </c>
+      <c r="S37">
+        <v>231.8224103355644</v>
+      </c>
+      <c r="T37">
+        <v>215.5565896644356</v>
+      </c>
+      <c r="U37">
+        <v>70.16171100678146</v>
+      </c>
+      <c r="V37">
+        <v>43556068</v>
+      </c>
+      <c r="W37">
+        <v>4.945000000000003</v>
+      </c>
+      <c r="X37">
+        <v>763468857</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45560</v>
+      </c>
+      <c r="C38">
+        <v>224.93</v>
+      </c>
+      <c r="D38">
+        <v>226.37</v>
+      </c>
+      <c r="E38">
+        <v>227.29</v>
+      </c>
+      <c r="F38">
+        <v>224.02</v>
+      </c>
+      <c r="G38">
+        <v>42308715</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <v>223.6065</v>
+      </c>
+      <c r="L38">
+        <v>223.8800394199816</v>
+      </c>
+      <c r="M38">
+        <v>57.02217529039072</v>
+      </c>
+      <c r="N38">
+        <v>224.5477380083934</v>
+      </c>
+      <c r="O38">
+        <v>223.4744804652381</v>
+      </c>
+      <c r="P38">
+        <v>1.073257543155279</v>
+      </c>
+      <c r="Q38">
+        <v>0.5658329609500934</v>
+      </c>
+      <c r="R38">
+        <v>223.6065</v>
+      </c>
+      <c r="S38">
+        <v>231.5853200552274</v>
+      </c>
+      <c r="T38">
+        <v>215.6276799447727</v>
+      </c>
+      <c r="U38">
+        <v>64.94522691705794</v>
+      </c>
+      <c r="V38">
+        <v>42308715</v>
+      </c>
+      <c r="W38">
+        <v>4.853571428571432</v>
+      </c>
+      <c r="X38">
+        <v>721160142</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>-0.004398117605664775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="1">
+        <v>1253</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45561</v>
+      </c>
+      <c r="C39">
+        <v>227.3</v>
+      </c>
+      <c r="D39">
+        <v>227.52</v>
+      </c>
+      <c r="E39">
+        <v>228.5</v>
+      </c>
+      <c r="F39">
+        <v>225.41</v>
+      </c>
+      <c r="G39">
+        <v>36636707</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>223.658</v>
+      </c>
+      <c r="L39">
+        <v>224.2267023323643</v>
+      </c>
+      <c r="M39">
+        <v>61.96428571428574</v>
+      </c>
+      <c r="N39">
+        <v>225.0050090840251</v>
+      </c>
+      <c r="O39">
+        <v>223.7741485789242</v>
+      </c>
+      <c r="P39">
+        <v>1.230860505100992</v>
+      </c>
+      <c r="Q39">
+        <v>0.6988384697802731</v>
+      </c>
+      <c r="R39">
+        <v>223.658</v>
+      </c>
+      <c r="S39">
+        <v>231.7279614555926</v>
+      </c>
+      <c r="T39">
+        <v>215.5880385444073</v>
+      </c>
+      <c r="U39">
+        <v>70.94418362024003</v>
+      </c>
+      <c r="V39">
+        <v>36636707</v>
+      </c>
+      <c r="W39">
+        <v>4.683571428571432</v>
+      </c>
+      <c r="X39">
+        <v>757796849</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0.005080178468878316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45562</v>
+      </c>
+      <c r="C40">
+        <v>228.46</v>
+      </c>
+      <c r="D40">
+        <v>227.79</v>
+      </c>
+      <c r="E40">
+        <v>229.52</v>
+      </c>
+      <c r="F40">
+        <v>227.3</v>
+      </c>
+      <c r="G40">
+        <v>34025967</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>223.558</v>
+      </c>
+      <c r="L40">
+        <v>224.5660640149962</v>
+      </c>
+      <c r="M40">
+        <v>62.20723917672107</v>
+      </c>
+      <c r="N40">
+        <v>225.4334692249444</v>
+      </c>
+      <c r="O40">
+        <v>224.0716190545594</v>
+      </c>
+      <c r="P40">
+        <v>1.361850170384969</v>
+      </c>
+      <c r="Q40">
+        <v>0.8314408099012123</v>
+      </c>
+      <c r="R40">
+        <v>223.558</v>
+      </c>
+      <c r="S40">
+        <v>231.3529014375466</v>
+      </c>
+      <c r="T40">
+        <v>215.7630985624534</v>
+      </c>
+      <c r="U40">
+        <v>72.35263432446527</v>
+      </c>
+      <c r="V40">
+        <v>34025967</v>
+      </c>
+      <c r="W40">
+        <v>4.516428571428575</v>
+      </c>
+      <c r="X40">
+        <v>791822816</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>0.001186708860759333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="1">
+        <v>1255</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45565</v>
+      </c>
+      <c r="C41">
+        <v>230.04</v>
+      </c>
+      <c r="D41">
+        <v>233</v>
+      </c>
+      <c r="E41">
+        <v>233</v>
+      </c>
+      <c r="F41">
+        <v>229.65</v>
+      </c>
+      <c r="G41">
+        <v>54793391</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41">
+        <v>223.758</v>
+      </c>
+      <c r="L41">
+        <v>225.369296013568</v>
+      </c>
+      <c r="M41">
+        <v>69.7760049094814</v>
+      </c>
+      <c r="N41">
+        <v>226.5975508826452</v>
+      </c>
+      <c r="O41">
+        <v>224.7329806060735</v>
+      </c>
+      <c r="P41">
+        <v>1.864570276571698</v>
+      </c>
+      <c r="Q41">
+        <v>1.038066703235309</v>
+      </c>
+      <c r="R41">
+        <v>223.758</v>
+      </c>
+      <c r="S41">
+        <v>232.3093719428684</v>
+      </c>
+      <c r="T41">
+        <v>215.2066280571316</v>
+      </c>
+      <c r="U41">
+        <v>99.53051643192487</v>
+      </c>
+      <c r="V41">
+        <v>54793391</v>
+      </c>
+      <c r="W41">
+        <v>4.549285714285718</v>
+      </c>
+      <c r="X41">
+        <v>846616207</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>0.02287194345669263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="1">
+        <v>1256</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C42">
+        <v>229.505</v>
+      </c>
+      <c r="D42">
+        <v>226.21</v>
+      </c>
+      <c r="E42">
+        <v>229.65</v>
+      </c>
+      <c r="F42">
+        <v>223.74</v>
+      </c>
+      <c r="G42">
+        <v>63285048</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <v>223.93</v>
+      </c>
+      <c r="L42">
+        <v>225.4493630598949</v>
+      </c>
+      <c r="M42">
+        <v>54.81944067336411</v>
+      </c>
+      <c r="N42">
+        <v>226.5379276699306</v>
+      </c>
+      <c r="O42">
+        <v>224.8423894500681</v>
+      </c>
+      <c r="P42">
+        <v>1.695538219862499</v>
+      </c>
+      <c r="Q42">
+        <v>1.169561006560747</v>
+      </c>
+      <c r="R42">
+        <v>223.93</v>
+      </c>
+      <c r="S42">
+        <v>232.5359073958112</v>
+      </c>
+      <c r="T42">
+        <v>215.3240926041888</v>
+      </c>
+      <c r="U42">
+        <v>64.11058946270219</v>
+      </c>
+      <c r="V42">
+        <v>63285048</v>
+      </c>
+      <c r="W42">
+        <v>4.839285714285716</v>
+      </c>
+      <c r="X42">
+        <v>783331159</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>-0.02914163090128752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="1">
         <v>1257</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B43" s="2">
         <v>45567</v>
       </c>
-      <c r="C8">
+      <c r="C43">
         <v>225.89</v>
       </c>
-      <c r="D8">
+      <c r="D43">
         <v>226.78</v>
       </c>
-      <c r="E8">
+      <c r="E43">
         <v>227.37</v>
       </c>
-      <c r="F8">
+      <c r="F43">
         <v>223.02</v>
       </c>
-      <c r="G8">
+      <c r="G43">
         <v>32880605</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8">
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
         <v>224.2265</v>
       </c>
-      <c r="L8">
+      <c r="L43">
         <v>225.5760903875239</v>
       </c>
-      <c r="M8">
+      <c r="M43">
         <v>55.37677661571465</v>
       </c>
-      <c r="N8">
+      <c r="N43">
         <v>226.5751695668643</v>
       </c>
-      <c r="O8">
+      <c r="O43">
         <v>224.9859161574704</v>
       </c>
-      <c r="P8">
+      <c r="P43">
         <v>1.589253409393933</v>
       </c>
-      <c r="Q8">
+      <c r="Q43">
         <v>1.253499487127385</v>
       </c>
-      <c r="R8">
+      <c r="R43">
         <v>224.2265</v>
       </c>
-      <c r="S8">
+      <c r="S43">
         <v>232.7941337702464</v>
       </c>
-      <c r="T8">
+      <c r="T43">
         <v>215.6588662297536</v>
       </c>
-      <c r="U8">
+      <c r="U43">
         <v>67.08398539384457</v>
       </c>
-      <c r="V8">
+      <c r="V43">
         <v>32880605</v>
       </c>
-      <c r="W8">
+      <c r="W43">
         <v>4.883571428571429</v>
       </c>
-      <c r="X8">
+      <c r="X43">
         <v>816211764</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>0.002519782502983903</v>
       </c>
     </row>
